--- a/WorkingContent/Jobs/00000000-0000-0000-0000-000000000000/AglPurchases.xlsx
+++ b/WorkingContent/Jobs/00000000-0000-0000-0000-000000000000/AglPurchases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Crayon\BlackBox\Jobs\6f7a5131-fff2-408e-b8c1-8e616ae02133\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BlackBox\WorkingContent\Jobs\00000000-0000-0000-0000-000000000000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC985CD7-6C29-44F2-A7A3-64C69453E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A7D80-5C98-42A1-9AF4-AE20647073B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="3" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="98">
   <si>
     <t>SerialNo</t>
   </si>
@@ -394,12 +394,6 @@
 </t>
   </si>
   <si>
-    <t>Purchases</t>
-  </si>
-  <si>
-    <t>itamPurchases</t>
-  </si>
-  <si>
     <t>PO Number</t>
   </si>
   <si>
@@ -518,6 +512,9 @@
   </si>
   <si>
     <t>Test Purchase 2</t>
+  </si>
+  <si>
+    <t>itamAglPurchases</t>
   </si>
 </sst>
 </file>
@@ -528,9 +525,23 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,117 +711,119 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1549,7 +1562,7 @@
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>48</v>
@@ -1661,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>51</v>
@@ -1678,10 +1691,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,10 +1702,10 @@
       <c r="B4" s="22"/>
       <c r="C4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,12 +1715,12 @@
       <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="23" t="s">
         <v>16</v>
       </c>
@@ -1719,12 +1732,12 @@
       <c r="B6" s="25">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="27" t="s">
         <v>53</v>
       </c>
@@ -1736,149 +1749,149 @@
       <c r="B7" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="25"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="26"/>
     </row>
   </sheetData>
@@ -1914,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,20 +1979,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="D2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -1995,46 +2008,46 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>57</v>
+      <c r="A3" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="29" t="s">
         <v>58</v>
       </c>
+      <c r="D3" s="39" t="s">
+        <v>97</v>
+      </c>
       <c r="E3" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>57</v>
+      <c r="A4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>58</v>
+      <c r="D4" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>15</v>
@@ -2053,17 +2066,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>57</v>
+      <c r="A5" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>58</v>
+      <c r="D5" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>13</v>
@@ -2082,107 +2095,107 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>57</v>
+      <c r="A6" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>57</v>
+      <c r="A7" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>57</v>
+      <c r="A8" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>57</v>
+      <c r="A9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>27</v>
@@ -2198,20 +2211,20 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>57</v>
+      <c r="A10" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>27</v>
@@ -2227,20 +2240,20 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>57</v>
+      <c r="A11" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>27</v>
@@ -2256,20 +2269,20 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>57</v>
+      <c r="A12" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
@@ -2285,20 +2298,20 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>57</v>
+      <c r="A13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>27</v>
@@ -2314,20 +2327,20 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>57</v>
+      <c r="A14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -2343,20 +2356,20 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>57</v>
+      <c r="A15" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>29</v>
@@ -2372,20 +2385,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>57</v>
+      <c r="A16" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>27</v>
@@ -2401,20 +2414,20 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>57</v>
+      <c r="A17" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>27</v>
@@ -2430,20 +2443,20 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>57</v>
+      <c r="A18" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>27</v>
@@ -2459,20 +2472,20 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>57</v>
+      <c r="A19" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>27</v>
@@ -2488,20 +2501,20 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>57</v>
+      <c r="A20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>27</v>
@@ -2517,20 +2530,20 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>57</v>
+      <c r="A21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>27</v>
@@ -2546,20 +2559,20 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>57</v>
+      <c r="A22" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>27</v>
@@ -2575,20 +2588,20 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>57</v>
+      <c r="A23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>27</v>
@@ -2604,20 +2617,20 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>57</v>
+      <c r="A24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
@@ -2633,20 +2646,20 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>57</v>
+      <c r="A25" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>27</v>
@@ -2662,20 +2675,20 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>57</v>
+      <c r="A26" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -2691,20 +2704,20 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>57</v>
+      <c r="A27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>27</v>
@@ -2720,20 +2733,20 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>57</v>
+      <c r="A28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>58</v>
+        <v>81</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>27</v>
@@ -2760,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2797,10 +2810,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -2809,84 +2822,84 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>73</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>74</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>78</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>81</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="38">
         <v>45444</v>
@@ -2902,21 +2915,21 @@
       </c>
       <c r="J2" s="28"/>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="38">
         <v>45444</v>
@@ -2932,10 +2945,10 @@
       </c>
       <c r="J3" s="28"/>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
